--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能一覧_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91404EE-E37B-4823-946F-C2A136829939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185C0081-5722-4C73-B59A-5EA5B82DE153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="17" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AQ$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>PJ名</t>
     <phoneticPr fontId="15"/>
@@ -729,7 +729,65 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>第１．３版</t>
+    <t>A107</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>業務日付更新</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>業務日付の更新を行う。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>BA10701</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>業務日付更新バッチ</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>業務日付を更新する。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>1.4版</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>第１．４版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -737,6 +795,171 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>BA10701 業務日付更新バッチ 追加</t>
+    <rPh sb="8" eb="10">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10205 ユーザ別従事プロジェクト 追加</t>
+    <rPh sb="11" eb="14">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10205</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト</t>
+    <rPh sb="3" eb="6">
+      <t>ベツジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザが従事しているプロジェクトの一覧ファイルの作成要求を行う。また、作成されたファイルをダウンロードする。</t>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>常駐バッチで実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>BA10603</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト画面にて作成要求されたプロジェクトの一覧をCSVファイルで出力する。</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10206 プロジェクトアップロード 追加</t>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>WA10206</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトアップロード</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プロジェクトの一覧ファイルをアップロードし、一括登録の要求を行う。</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>BA10603 ユーザ別従事プロジェクト抽出バッチ 追加</t>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト抽出バッチ</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -1149,7 +1372,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1281,8 +1504,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1293,10 +1529,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,7 +1571,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1536,12 +1777,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1551,12 +1792,51 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1572,15 +1852,99 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1591,117 +1955,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2514,7 +2767,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="J23" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2526,12 +2779,12 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="61">
+      <c r="I25" s="64">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44692</v>
-      </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
+        <v>44889</v>
+      </c>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="14"/>
@@ -3129,55 +3382,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="111" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="120" t="s">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="102" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="129" t="s">
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="95">
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="101">
         <v>44672</v>
       </c>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="97"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="103"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -3185,53 +3438,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="102" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="108" t="str">
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="114" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="95">
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="101">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44692</v>
-      </c>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="97"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="103"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3239,45 +3492,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="97"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="103"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3314,1070 +3567,1126 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="E7" s="106"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="101" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="98" t="s">
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="98" t="s">
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="99"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="105"/>
     </row>
     <row r="8" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="87">
         <v>1</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83">
+      <c r="C8" s="88"/>
+      <c r="D8" s="89">
         <v>43404</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89" t="s">
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="92" t="s">
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="89" t="s">
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="91"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="97"/>
     </row>
     <row r="9" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="84">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="64">
+      <c r="C9" s="85"/>
+      <c r="D9" s="67">
         <v>43804</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="80" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="75" t="s">
+      <c r="H9" s="70"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="77" t="s">
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="68" t="s">
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="70"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
     </row>
     <row r="10" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64">
+      <c r="C10" s="66"/>
+      <c r="D10" s="67">
         <v>43895</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="76" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="75" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="77" t="s">
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="75" t="s">
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="70"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="73"/>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64">
+      <c r="C11" s="66"/>
+      <c r="D11" s="67">
         <v>44692</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="76" t="s">
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="75" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71" t="s">
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="75" t="s">
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="70"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="73"/>
     </row>
     <row r="12" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="70"/>
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67">
+        <v>44866</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="73"/>
     </row>
     <row r="13" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="70"/>
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67">
+        <v>44869</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="73"/>
     </row>
     <row r="14" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="70"/>
+      <c r="A14" s="9">
+        <v>7</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67">
+        <v>44883</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="70"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="73"/>
     </row>
     <row r="15" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="70"/>
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="67">
+        <v>44889</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="73"/>
     </row>
     <row r="16" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="70"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="73"/>
     </row>
     <row r="17" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="70"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="73"/>
     </row>
     <row r="18" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="70"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="73"/>
     </row>
     <row r="19" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="70"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="73"/>
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="70"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="73"/>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="70"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="73"/>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="70"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="73"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="73"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="70"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="73"/>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="70"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="73"/>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="70"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="73"/>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="70"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="73"/>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="70"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="73"/>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="70"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="73"/>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="70"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="73"/>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="70"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="73"/>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="70"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="73"/>
     </row>
     <row r="33" spans="1:35" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="70"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="73"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="31"/>
@@ -4719,163 +5028,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="111" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="120" t="str">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="126" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="136" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44672</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="136" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="138">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44692</v>
-      </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="138" t="str">
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6184,7 +6493,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AP36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -6196,163 +6505,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="135" t="str">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="161" t="str">
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能一覧</v>
       </c>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="102" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="138">
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="144">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44672</v>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="135" t="str">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="102" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="138">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="144">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44692</v>
-      </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+        <v>44889</v>
+      </c>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="135" t="str">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="138" t="str">
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -6408,390 +6717,390 @@
     </row>
     <row r="6" spans="1:42" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:42" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="170" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="170" t="s">
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="170" t="s">
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="171"/>
-      <c r="T7" s="170" t="s">
+      <c r="S7" s="175"/>
+      <c r="T7" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="174"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="170" t="s">
+      <c r="U7" s="178"/>
+      <c r="V7" s="178"/>
+      <c r="W7" s="178"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="171"/>
-      <c r="AH7" s="170" t="s">
+      <c r="AA7" s="178"/>
+      <c r="AB7" s="178"/>
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="175"/>
+      <c r="AH7" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="171"/>
-      <c r="AK7" s="170" t="s">
+      <c r="AI7" s="178"/>
+      <c r="AJ7" s="175"/>
+      <c r="AK7" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
-      <c r="AN7" s="174"/>
-      <c r="AO7" s="174"/>
-      <c r="AP7" s="171"/>
+      <c r="AL7" s="178"/>
+      <c r="AM7" s="178"/>
+      <c r="AN7" s="178"/>
+      <c r="AO7" s="178"/>
+      <c r="AP7" s="175"/>
     </row>
     <row r="8" spans="1:42" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="187"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="175"/>
-      <c r="AN8" s="175"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="173"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="179"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="179"/>
+      <c r="AN8" s="179"/>
+      <c r="AO8" s="179"/>
+      <c r="AP8" s="177"/>
     </row>
     <row r="9" spans="1:42" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="52">
         <v>1</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151" t="s">
+      <c r="E9" s="169"/>
+      <c r="F9" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151" t="s">
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="77" t="s">
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="73"/>
-      <c r="T9" s="71" t="s">
+      <c r="S9" s="76"/>
+      <c r="T9" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="77" t="s">
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="71" t="s">
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="77" t="s">
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="73"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="76"/>
     </row>
     <row r="10" spans="1:42" s="6" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="52">
         <f>C9+1</f>
         <v>2</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="71" t="s">
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="71" t="s">
+      <c r="S10" s="76"/>
+      <c r="T10" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="77" t="s">
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="71" t="s">
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="73"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="76"/>
     </row>
     <row r="11" spans="1:42" s="6" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="52">
-        <f t="shared" ref="C11:C13" si="0">C10+1</f>
+        <f t="shared" ref="C11:C22" si="0">C10+1</f>
         <v>3</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="71" t="s">
+      <c r="D11" s="202"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="73"/>
-      <c r="T11" s="71" t="s">
+      <c r="S11" s="76"/>
+      <c r="T11" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="71" t="s">
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="71" t="s">
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="73"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="76"/>
     </row>
     <row r="12" spans="1:42" s="6" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="71" t="s">
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="206"/>
+      <c r="R12" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="S12" s="73"/>
-      <c r="T12" s="71" t="s">
+      <c r="S12" s="76"/>
+      <c r="T12" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="71" t="s">
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="71" t="s">
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="73"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="76"/>
     </row>
     <row r="13" spans="1:42" s="6" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="149" t="s">
+      <c r="E13" s="169"/>
+      <c r="F13" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="149" t="s">
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="185"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="71" t="s">
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="73"/>
-      <c r="T13" s="71" t="s">
+      <c r="S13" s="76"/>
+      <c r="T13" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="71" t="s">
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="71" t="s">
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="77" t="s">
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="73"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="76"/>
     </row>
     <row r="14" spans="1:42" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="52">
-        <f>C13+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D14" s="53"/>
@@ -6808,44 +7117,44 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="54"/>
-      <c r="R14" s="77" t="s">
+      <c r="R14" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="73"/>
-      <c r="T14" s="77" t="s">
+      <c r="S14" s="76"/>
+      <c r="T14" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="77" t="s">
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="71" t="s">
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="73"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="76"/>
     </row>
     <row r="15" spans="1:42" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="55">
-        <f>C13+1</f>
-        <v>6</v>
+      <c r="C15" s="52">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="24"/>
@@ -6861,46 +7170,46 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="54"/>
-      <c r="R15" s="141" t="s">
+      <c r="R15" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="143"/>
-      <c r="T15" s="141" t="s">
+      <c r="S15" s="148"/>
+      <c r="T15" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="141" t="s">
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="141" t="s">
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="AI15" s="188"/>
-      <c r="AJ15" s="189"/>
-      <c r="AK15" s="141" t="s">
+      <c r="AI15" s="180"/>
+      <c r="AJ15" s="181"/>
+      <c r="AK15" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="143"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="149"/>
+      <c r="AN15" s="149"/>
+      <c r="AO15" s="149"/>
+      <c r="AP15" s="148"/>
     </row>
     <row r="16" spans="1:42" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="55">
-        <f>C14+1</f>
-        <v>7</v>
+      <c r="C16" s="52">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="58"/>
@@ -6916,369 +7225,415 @@
       <c r="O16" s="58"/>
       <c r="P16" s="58"/>
       <c r="Q16" s="57"/>
-      <c r="R16" s="141" t="s">
+      <c r="R16" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="143"/>
-      <c r="T16" s="141" t="s">
+      <c r="S16" s="148"/>
+      <c r="T16" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="141" t="s">
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="142"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="143"/>
-      <c r="AH16" s="141" t="s">
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="148"/>
+      <c r="AH16" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="AI16" s="142"/>
-      <c r="AJ16" s="143"/>
-      <c r="AK16" s="144"/>
-      <c r="AL16" s="145"/>
-      <c r="AM16" s="145"/>
-      <c r="AN16" s="145"/>
-      <c r="AO16" s="145"/>
-      <c r="AP16" s="146"/>
-    </row>
-    <row r="17" spans="1:42" s="6" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="150"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="152"/>
+    </row>
+    <row r="17" spans="1:42" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="52">
-        <f>C16+1</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="149" t="s">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="S17" s="148"/>
+      <c r="T17" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="148"/>
+      <c r="AH17" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="148"/>
+      <c r="AK17" s="150"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="152"/>
+    </row>
+    <row r="18" spans="1:42" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="52">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="148"/>
+      <c r="T18" s="147" t="s">
+        <v>107</v>
+      </c>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="148"/>
+      <c r="AH18" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="148"/>
+      <c r="AK18" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="149"/>
+      <c r="AN18" s="149"/>
+      <c r="AO18" s="149"/>
+      <c r="AP18" s="148"/>
+    </row>
+    <row r="19" spans="1:42" s="6" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="151" t="s">
+      <c r="E19" s="169"/>
+      <c r="F19" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="151" t="s">
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="77" t="s">
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="147"/>
-      <c r="T17" s="77" t="s">
+      <c r="S19" s="156"/>
+      <c r="T19" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="77" t="s">
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="159"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="147"/>
-      <c r="AH17" s="77" t="s">
+      <c r="AA19" s="159"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="159"/>
+      <c r="AD19" s="159"/>
+      <c r="AE19" s="159"/>
+      <c r="AF19" s="159"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="AI17" s="148"/>
-      <c r="AJ17" s="147"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="73"/>
-    </row>
-    <row r="18" spans="1:42" s="59" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="60">
-        <f>C17+1</f>
-        <v>9</v>
-      </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="196"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="77" t="s">
+      <c r="AI19" s="159"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="75"/>
+      <c r="AP19" s="76"/>
+    </row>
+    <row r="20" spans="1:42" s="55" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="147"/>
-      <c r="T18" s="77" t="s">
+      <c r="S20" s="156"/>
+      <c r="T20" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="77" t="s">
+      <c r="U20" s="159"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="159"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="147"/>
-      <c r="AH18" s="77" t="s">
+      <c r="AA20" s="159"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="159"/>
+      <c r="AD20" s="159"/>
+      <c r="AE20" s="159"/>
+      <c r="AF20" s="159"/>
+      <c r="AG20" s="156"/>
+      <c r="AH20" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="147"/>
-      <c r="AK18" s="190"/>
-      <c r="AL18" s="191"/>
-      <c r="AM18" s="191"/>
-      <c r="AN18" s="191"/>
-      <c r="AO18" s="191"/>
-      <c r="AP18" s="192"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
+      <c r="AI20" s="159"/>
+      <c r="AJ20" s="156"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="161"/>
+      <c r="AO20" s="161"/>
+      <c r="AP20" s="162"/>
+    </row>
+    <row r="21" spans="1:42" s="55" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" s="156"/>
+      <c r="T21" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="158"/>
+      <c r="Z21" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="157"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI21" s="157"/>
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL21" s="157"/>
+      <c r="AM21" s="157"/>
+      <c r="AN21" s="157"/>
+      <c r="AO21" s="157"/>
+      <c r="AP21" s="158"/>
+    </row>
+    <row r="22" spans="1:42" s="55" customFormat="1" ht="35.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="154"/>
+      <c r="F22" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="158"/>
+      <c r="T22" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="157"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI22" s="157"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="157"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="157"/>
+      <c r="AP22" s="158"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
     </row>
@@ -7678,42 +8033,205 @@
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
     </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="Z15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AP14"/>
-    <mergeCell ref="K7:Q8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Z13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AP13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:Q13"/>
+  <mergeCells count="123">
     <mergeCell ref="AK7:AP8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="AK9:AP9"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="AK12:AP12"/>
+    <mergeCell ref="AK11:AP11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7730,6 +8248,8 @@
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -7743,40 +8263,77 @@
     <mergeCell ref="T7:Y8"/>
     <mergeCell ref="Z7:AG8"/>
     <mergeCell ref="AH7:AJ8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="Z19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="AK12:AP12"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="T11:Y11"/>
     <mergeCell ref="Z11:AG11"/>
     <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AP11"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="Z17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="AK13:AP13"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="AK14:AP14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="Z15:AG15"/>
     <mergeCell ref="Z16:AG16"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AK16:AP16"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="AK19:AP19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AP18"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AP22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AP17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AP21"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
